--- a/2_Teaching_Effectiveness/2b_Student_Course_Evaluations/Z_Misc/Course Evaluation Numbers.xlsx
+++ b/2_Teaching_Effectiveness/2b_Student_Course_Evaluations/Z_Misc/Course Evaluation Numbers.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myerauedu-my.sharepoint.com/personal/chambd17_erau_edu/Documents/Admin/Tenure Packet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcham\Documents\GitHub\Chamberlain_Tenure_Packet\2_Teaching_Effectiveness\2b_Student_Course_Evaluations\Z_Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2907475A-4971-054D-9F32-E5B0EDCC55DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7210B9AB-BFF3-4534-8A8C-947F163FE8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39360" yWindow="1760" windowWidth="20220" windowHeight="19100" xr2:uid="{2882075C-5BCF-BB48-99E2-FB2C0697CBA8}"/>
+    <workbookView xWindow="34755" yWindow="435" windowWidth="15885" windowHeight="20685" xr2:uid="{2882075C-5BCF-BB48-99E2-FB2C0697CBA8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="metrics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="25">
   <si>
     <t>Term</t>
   </si>
@@ -43,27 +44,9 @@
     <t>Course</t>
   </si>
   <si>
-    <t>Course Experience Mean</t>
-  </si>
-  <si>
-    <t>Delivery Mode Mean</t>
-  </si>
-  <si>
     <t>Instructor Experience Mean</t>
   </si>
   <si>
-    <t>Course Experience College</t>
-  </si>
-  <si>
-    <t>Course Experience Campus</t>
-  </si>
-  <si>
-    <t>Delivery Mode College</t>
-  </si>
-  <si>
-    <t>Delivery Mode Campus</t>
-  </si>
-  <si>
     <t>Insructor Experience College</t>
   </si>
   <si>
@@ -88,13 +71,46 @@
     <t>MATH 111</t>
   </si>
   <si>
-    <t>General Comments (Pertaining to Instructor)</t>
-  </si>
-  <si>
-    <t>I do think this class could be improved by a more personable interaction with the teacher - maybe a weekly video describing any tips/tricks that may be applicable just to put a name to the face and get a feel for his personality.</t>
-  </si>
-  <si>
-    <t>Challenging, but the Professor offered support.</t>
+    <t>RELEASE</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>MATH 106</t>
+  </si>
+  <si>
+    <t>CSCI 251</t>
+  </si>
+  <si>
+    <t>MATH 502</t>
+  </si>
+  <si>
+    <t>STAT 412</t>
+  </si>
+  <si>
+    <t>DSCI 201</t>
+  </si>
+  <si>
+    <t>Positive Comments to Instructor</t>
+  </si>
+  <si>
+    <t>Neutral Comments to Instructor</t>
+  </si>
+  <si>
+    <t>Negative Comments to Instructor</t>
+  </si>
+  <si>
+    <t>Number of Students</t>
+  </si>
+  <si>
+    <t>Number of Respondents</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -119,7 +135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,23 +232,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -251,9 +282,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -291,7 +322,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -397,7 +428,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,7 +570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -547,232 +578,1168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFAC011-51AB-8845-930B-A875FF6001B0}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="12" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="8" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>2021</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>12</v>
+      </c>
+      <c r="F2" s="13">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4.55</v>
+      </c>
+      <c r="H2" s="4">
+        <v>4.53</v>
+      </c>
+      <c r="I2" s="20">
+        <v>3</v>
+      </c>
+      <c r="J2" s="13">
+        <v>1</v>
+      </c>
+      <c r="K2" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8">
+        <v>25</v>
+      </c>
+      <c r="E5" s="8">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10">
+        <v>4.59</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="5">
+        <v>6</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10">
+        <v>29</v>
+      </c>
+      <c r="E6" s="10">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4.43</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4.51</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10">
+        <v>32</v>
+      </c>
+      <c r="E7" s="10">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H7" s="6">
+        <v>4.51</v>
+      </c>
+      <c r="I7" s="5">
+        <v>6</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="F2" s="3">
-        <v>4.28</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3.88</v>
-      </c>
-      <c r="H2" s="3">
-        <v>4.38</v>
-      </c>
-      <c r="I2" s="3">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="J2" s="4">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="B10" s="3">
+        <f>B2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3">
+        <v>25</v>
+      </c>
+      <c r="F10" s="13">
+        <v>4.67</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="I10" s="13">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8">
+        <f>B3+1</f>
+        <v>2022</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8">
+        <f>B4+1</f>
+        <v>2022</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10">
+        <v>4.91</v>
+      </c>
+      <c r="G12" s="10">
+        <v>4.75</v>
+      </c>
+      <c r="H12" s="6">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I12" s="10">
+        <v>4</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8">
+        <f>B5+1</f>
+        <v>2022</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8">
+        <f>B6+1</f>
+        <v>2023</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8">
+        <v>19</v>
+      </c>
+      <c r="F14" s="10">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4.46</v>
+      </c>
+      <c r="H14" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="I14" s="10">
+        <v>5</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8">
+        <f>B7+1</f>
+        <v>2023</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8">
+        <f>B8+1</f>
+        <v>2023</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="10">
+        <v>35</v>
+      </c>
+      <c r="E16" s="8">
+        <v>21</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4.75</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4.46</v>
+      </c>
+      <c r="H16" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="I16" s="10">
+        <v>7</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7">
+        <f>B9+1</f>
+        <v>2023</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B10+1</f>
+        <v>2023</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="13">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3">
+        <v>16</v>
+      </c>
+      <c r="F18" s="13">
+        <v>4.84</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="I18" s="13">
+        <v>7</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="8">
+        <f>B11+1</f>
+        <v>2023</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="8">
+        <f>B12+1</f>
+        <v>2023</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="10">
+        <v>29</v>
+      </c>
+      <c r="E20" s="8">
+        <v>14</v>
+      </c>
+      <c r="F20" s="10">
+        <v>4.63</v>
+      </c>
+      <c r="G20" s="10">
+        <v>4.43</v>
+      </c>
+      <c r="H20" s="6">
+        <v>4.47</v>
+      </c>
+      <c r="I20" s="10">
+        <v>4</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8">
+        <f>B13+1</f>
+        <v>2023</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="8">
+        <f>B14+1</f>
+        <v>2024</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="10">
+        <v>4</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4</v>
+      </c>
+      <c r="F22" s="10">
+        <v>4.72</v>
+      </c>
+      <c r="G22" s="10">
+        <v>4.53</v>
+      </c>
+      <c r="H22" s="6">
+        <v>4.53</v>
+      </c>
+      <c r="I22" s="10">
+        <v>2</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="8">
+        <f>B15+1</f>
+        <v>2024</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="8">
+        <f>B16+1</f>
+        <v>2024</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="7">
+        <f>B17+1</f>
+        <v>2024</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3">
+        <f>B18+1</f>
+        <v>2024</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="13">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="13">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I26" s="13">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="8">
+        <f>B19+1</f>
+        <v>2024</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="10">
+        <v>17</v>
+      </c>
+      <c r="E27" s="8">
+        <v>8</v>
+      </c>
+      <c r="F27" s="10">
+        <v>4.78</v>
+      </c>
+      <c r="G27" s="10">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H27" s="6">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I27" s="10">
+        <v>5</v>
+      </c>
+      <c r="J27" s="10">
+        <v>1</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="8">
+        <f>B20+1</f>
+        <v>2024</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="8">
+        <f>B21+1</f>
+        <v>2024</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="8">
+        <f>B22+1</f>
+        <v>2025</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="10">
+        <v>20</v>
+      </c>
+      <c r="E30" s="8">
+        <v>16</v>
+      </c>
+      <c r="F30" s="10">
+        <v>4.62</v>
+      </c>
+      <c r="G30" s="10">
         <v>4.55</v>
       </c>
-      <c r="L2" s="3">
-        <v>4.53</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="H30" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="I30" s="10">
+        <v>5</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="8">
+        <f>B23+1</f>
+        <v>2025</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="8">
+        <f>B24+1</f>
+        <v>2025</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="7">
+        <f>B25+1</f>
+        <v>2025</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B26+1</f>
+        <v>2025</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="13">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3">
+        <v>8</v>
+      </c>
+      <c r="F34" s="13">
+        <v>4.74</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4.67</v>
+      </c>
+      <c r="H34" s="4">
+        <v>4.67</v>
+      </c>
+      <c r="I34" s="13">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="8">
+        <f>B27+1</f>
+        <v>2025</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="10">
+        <v>11</v>
+      </c>
+      <c r="E35" s="8">
+        <v>8</v>
+      </c>
+      <c r="F35" s="10">
+        <v>4.45</v>
+      </c>
+      <c r="G35" s="10">
+        <v>4.67</v>
+      </c>
+      <c r="H35" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="I35" s="10">
+        <v>5</v>
+      </c>
+      <c r="J35" s="10">
+        <v>2</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="8">
+        <f>B28+1</f>
+        <v>2025</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2021</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="D36" s="8">
+        <v>10</v>
+      </c>
+      <c r="E36" s="8">
+        <v>5</v>
+      </c>
+      <c r="F36" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="G36" s="10">
+        <v>4.67</v>
+      </c>
+      <c r="H36" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="I36" s="8">
+        <v>5</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="8">
+        <f>B29+1</f>
+        <v>2025</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="10">
+        <v>15</v>
+      </c>
+      <c r="E37" s="10">
+        <v>8</v>
+      </c>
+      <c r="F37" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="G37" s="10">
+        <v>4.67</v>
+      </c>
+      <c r="H37" s="6">
+        <v>4.66</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="8">
+        <f>B30+1</f>
+        <v>2026</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="8">
+        <f>B31+1</f>
+        <v>2026</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
-        <v>4.72</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2021</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7">
-        <v>4.45</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8">
-        <v>4.59</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2022</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="E5" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="F5" s="7">
-        <v>4.26</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4.13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4.37</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4.41</v>
-      </c>
-      <c r="J5" s="8">
-        <v>4.43</v>
-      </c>
-      <c r="K5" s="7">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="L5" s="7">
-        <v>4.51</v>
-      </c>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2022</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="11">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="E6" s="11">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="F6" s="11">
-        <v>4.26</v>
-      </c>
-      <c r="G6" s="11">
-        <v>4.38</v>
-      </c>
-      <c r="H6" s="11">
-        <v>4.37</v>
-      </c>
-      <c r="I6" s="11">
-        <v>4.41</v>
-      </c>
-      <c r="J6" s="12">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="K6" s="11">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="L6" s="11">
-        <v>4.51</v>
-      </c>
-      <c r="M6" s="13"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="8">
+        <f>B32+1</f>
+        <v>2026</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="17"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="7">
+        <f>B33+1</f>
+        <v>2026</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f>SUM(D2:D41)</f>
+        <v>387</v>
+      </c>
+      <c r="E42">
+        <f>SUM(E2:E41)</f>
+        <v>245</v>
+      </c>
+      <c r="F42" s="24">
+        <f>SUMPRODUCT(E2:E41,F2:F41)/E42</f>
+        <v>4.6589387755102036</v>
+      </c>
+      <c r="I42">
+        <f>SUM(I2:I41)</f>
+        <v>81</v>
+      </c>
+      <c r="J42">
+        <f>SUM(J2:J41)</f>
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <f>SUM(K2:K41)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
